--- a/ExternData/Resources/Examples/test.xlsx
+++ b/ExternData/Resources/Examples/test.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="9720" windowHeight="7320"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="set1" sheetId="1" r:id="rId1"/>
-    <sheet name="set2" sheetId="2" r:id="rId2"/>
+    <sheet name="set1" sheetId="1" r:id="rId4"/>
+    <sheet name="set2" sheetId="2" r:id="rId5"/>
+    <sheet name="table1" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="92512"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -31,58 +32,76 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -372,17 +391,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="256" width="11.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="10" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" customHeight="1" ht="12.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" customHeight="1" ht="12.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -398,7 +419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" customHeight="1" ht="12.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -407,24 +428,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
-  <headerFooter alignWithMargins="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="256" width="11.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="10" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" customHeight="1" ht="12.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" customHeight="1" ht="12.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -440,7 +472,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" customHeight="1" ht="12.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -449,8 +481,70 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
-  <headerFooter alignWithMargins="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="10" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:2" customHeight="1" ht="12.75">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customHeight="1" ht="12.75">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customHeight="1" ht="12.75">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>